--- a/postcodes.xlsx
+++ b/postcodes.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2141, 2164, 2047, 2137, 2060, 2142, 2160</t>
+          <t>2557, 2145, 2158, 2559, 2230, 2162, 2084, 2080, 2135, 2570, 2218, 2046, 2196, 2767, 2762, 2567, 2147, 2074, 2144, 2234, 2060, 2759, 2044, 2071, 2565, 2110, 2118, 2112, 2560, 2163, 2232, 2231, 2036, 2156, 2745, 2166, 2075, 2213, 2763, 2766, 2077, 2010, 2164, 2770, 2756, 2120, 2219, 2222, 2126, 2211, 2176, 2038, 2161, 2088, 2150, 2173, 2749, 2760, 2175, 2160, 2768, 2750, 2131, 2100, 2765, 2099, 2116, 2753, 2020, 2179, 2025, 2170, 2206, 2073, 2157, 2233, 2178, 2148, 2216, 2747, 2566, 2555, 2168, 2556, 2121, 2171, 2225, 2227, 2154, 2114, 2031, 2066, 2141, 2087, 2159, 2748, 2229, 2068, 2019, 2155, 2085, 2153, 2200, 2138, 2167</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2088, 2095, 2030</t>
+          <t>2204, 2009, 2198, 2776, 2081, 2026, 2508, 2752, 2043, 2774, 2209, 2103, 2097, 2082, 2777, 2142, 2779, 2102, 2137, 2250, 2127, 2090, 2758, 2035, 2778, 2030, 2107, 2106, 2095, 2256, 2194, 2029, 2033, 2140, 2024, 2228, 2787, 2122, 2069, 2257, 2199, 2568, 2775, 2065, 2083, 2571, 2125, 2011, 2119, 2569, 2208, 2757, 2564, 2190, 2101, 2223, 2093, 2754, 2108, 2221, 2086, 2769, 2146, 2113, 2096, 2079, 2165, 2563</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,11 @@
           <t>O2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2063, 2575, 2790, 2042, 2115, 2224, 2530, 2785, 2133, 2761, 2502, 2021, 2528, 2516, 2576, 2786, 2258, 2259, 2251, 2034, 2197, 2226, 2573, 2780, 2515, 2214, 2782, 2518, 2572, 2217, 2151, 2773, 2070, 2784, 2500, 2076, 2041, 2064, 2574, 2260, 2526, 2205, 2143, 2505, 2049, 2261</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -483,7 +487,11 @@
           <t>O3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2533, 2287, 2330, 2334, 2220, 2264, 2848, 2326, 2331, 2577, 2195, 2541, 2578, 2324, 2849, 2529, 2847, 2282, 2283, 2290, 2291, 2047, 2534, 2320, 2846, 2267, 2333, 2421, 2023, 2316, 2527, 2263, 2304, 2089, 2321, 2210, 2579, 2307, 2322, 2174, 2850, 2535, 2506, 2281, 2783, 2323, 2795, 2280, 2295, 2622, 2328, 2325, 2040, 2318, 2285, 2580, 2303, 2072, 2037, 2300, 2265, 2134, 2278, 2286, 2177, 2845, 2583, 2262, 2335, 2032, 2540, 2305, 2284, 2327</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
